--- a/Datos/TRANSACCION.xlsx
+++ b/Datos/TRANSACCION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Projecto_ABD\ABD\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8177A8C2-2221-4C36-91CF-2AE328908E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E33636-FF28-4923-9E9B-26F2EF937782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A898DE9-FD2C-4FAA-A3EA-74017E87CBE0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="34">
   <si>
     <t>ID_UNICO</t>
   </si>
@@ -128,13 +128,22 @@
   </si>
   <si>
     <t>ES32 6334 335 3339</t>
+  </si>
+  <si>
+    <t>1254 2689 5472 0214</t>
+  </si>
+  <si>
+    <t>6892 4513 7892 4568</t>
+  </si>
+  <si>
+    <t>6705 0002 0012 0068</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +159,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,12 +192,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,7 +516,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A29"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,6 +606,9 @@
       <c r="K2" t="s">
         <v>13</v>
       </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
       <c r="M2" t="s">
         <v>14</v>
       </c>
@@ -624,6 +645,9 @@
       <c r="K3" t="s">
         <v>13</v>
       </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
       <c r="M3" t="s">
         <v>15</v>
       </c>
@@ -660,6 +684,9 @@
       <c r="K4" t="s">
         <v>13</v>
       </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
       <c r="M4" t="s">
         <v>15</v>
       </c>
@@ -696,6 +723,9 @@
       <c r="K5" t="s">
         <v>13</v>
       </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
       <c r="M5" t="s">
         <v>16</v>
       </c>
@@ -732,6 +762,9 @@
       <c r="K6" t="s">
         <v>13</v>
       </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
       <c r="M6" t="s">
         <v>17</v>
       </c>
@@ -768,6 +801,9 @@
       <c r="K7" t="s">
         <v>13</v>
       </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
       <c r="M7" t="s">
         <v>16</v>
       </c>
@@ -804,6 +840,9 @@
       <c r="K8" t="s">
         <v>13</v>
       </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
       <c r="M8" t="s">
         <v>17</v>
       </c>
@@ -840,6 +879,9 @@
       <c r="K9" t="s">
         <v>13</v>
       </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
       <c r="M9" t="s">
         <v>14</v>
       </c>
@@ -876,6 +918,9 @@
       <c r="K10" t="s">
         <v>13</v>
       </c>
+      <c r="L10" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="M10" t="s">
         <v>15</v>
       </c>
@@ -912,6 +957,9 @@
       <c r="K11" t="s">
         <v>13</v>
       </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
       <c r="M11" t="s">
         <v>15</v>
       </c>
@@ -948,6 +996,9 @@
       <c r="K12" t="s">
         <v>13</v>
       </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
       <c r="M12" t="s">
         <v>16</v>
       </c>
@@ -984,6 +1035,9 @@
       <c r="K13" t="s">
         <v>13</v>
       </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
       <c r="M13" t="s">
         <v>17</v>
       </c>
@@ -1020,6 +1074,9 @@
       <c r="K14" t="s">
         <v>13</v>
       </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
       <c r="M14" t="s">
         <v>18</v>
       </c>
@@ -1056,6 +1113,9 @@
       <c r="K15" t="s">
         <v>13</v>
       </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
       <c r="M15" t="s">
         <v>14</v>
       </c>
@@ -1092,6 +1152,9 @@
       <c r="K16" t="s">
         <v>13</v>
       </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
       <c r="M16" t="s">
         <v>15</v>
       </c>
@@ -1128,6 +1191,9 @@
       <c r="K17" t="s">
         <v>13</v>
       </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
       <c r="M17" t="s">
         <v>16</v>
       </c>
@@ -1164,6 +1230,9 @@
       <c r="K18" t="s">
         <v>13</v>
       </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
       <c r="M18" t="s">
         <v>17</v>
       </c>
@@ -1200,6 +1269,9 @@
       <c r="K19" t="s">
         <v>13</v>
       </c>
+      <c r="L19" t="s">
+        <v>31</v>
+      </c>
       <c r="M19" t="s">
         <v>14</v>
       </c>
@@ -1236,6 +1308,9 @@
       <c r="K20" t="s">
         <v>13</v>
       </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
       <c r="M20" t="s">
         <v>15</v>
       </c>
@@ -1272,6 +1347,9 @@
       <c r="K21" t="s">
         <v>13</v>
       </c>
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
       <c r="M21" t="s">
         <v>18</v>
       </c>
@@ -1308,6 +1386,9 @@
       <c r="K22" t="s">
         <v>13</v>
       </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
       <c r="M22" t="s">
         <v>14</v>
       </c>
@@ -1344,6 +1425,9 @@
       <c r="K23" t="s">
         <v>13</v>
       </c>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
       <c r="M23" t="s">
         <v>15</v>
       </c>
@@ -1380,6 +1464,9 @@
       <c r="K24" t="s">
         <v>13</v>
       </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
       <c r="M24" t="s">
         <v>16</v>
       </c>
@@ -1416,6 +1503,9 @@
       <c r="K25" t="s">
         <v>13</v>
       </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
       <c r="M25" t="s">
         <v>17</v>
       </c>
@@ -1452,6 +1542,9 @@
       <c r="K26" t="s">
         <v>13</v>
       </c>
+      <c r="L26" t="s">
+        <v>31</v>
+      </c>
       <c r="M26" t="s">
         <v>15</v>
       </c>
@@ -1488,6 +1581,9 @@
       <c r="K27" t="s">
         <v>13</v>
       </c>
+      <c r="L27" t="s">
+        <v>31</v>
+      </c>
       <c r="M27" t="s">
         <v>14</v>
       </c>
@@ -1524,6 +1620,9 @@
       <c r="K28" t="s">
         <v>13</v>
       </c>
+      <c r="L28" t="s">
+        <v>32</v>
+      </c>
       <c r="M28" t="s">
         <v>15</v>
       </c>
@@ -1559,6 +1658,9 @@
       </c>
       <c r="K29" t="s">
         <v>13</v>
+      </c>
+      <c r="L29" t="s">
+        <v>33</v>
       </c>
       <c r="M29" t="s">
         <v>17</v>

--- a/Datos/TRANSACCION.xlsx
+++ b/Datos/TRANSACCION.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Projecto_ABD\ABD\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ABD\ABD\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E33636-FF28-4923-9E9B-26F2EF937782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A898DE9-FD2C-4FAA-A3EA-74017E87CBE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -142,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -512,28 +511,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF751871-1549-475F-89C8-152E6A5A7289}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>ROW(A2)-1</f>
         <v>1</v>
@@ -613,7 +612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A29" si="0">ROW(A3)-1</f>
         <v>2</v>
@@ -652,7 +651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -691,7 +690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -730,7 +729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -769,7 +768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -808,7 +807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -847,7 +846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -886,7 +885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -925,7 +924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -964,7 +963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1003,7 +1002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1042,7 +1041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1081,7 +1080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1120,7 +1119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1159,7 +1158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1198,7 +1197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1237,7 +1236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1276,7 +1275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1315,7 +1314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1354,7 +1353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1393,7 +1392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1432,7 +1431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1471,7 +1470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1510,7 +1509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1549,7 +1548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1588,7 +1587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1627,7 +1626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>

--- a/Datos/TRANSACCION.xlsx
+++ b/Datos/TRANSACCION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ABD\ABD\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\base\ABD\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="35">
   <si>
     <t>ID_UNICO</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>6705 0002 0012 0068</t>
+  </si>
+  <si>
+    <t>ES32 5829 354 1000</t>
   </si>
 </sst>
 </file>
@@ -514,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
         <v>26</v>
@@ -765,7 +768,7 @@
         <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -828,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
         <v>28</v>
@@ -1023,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
         <v>23</v>
@@ -1038,7 +1041,7 @@
         <v>32</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1218,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s">
         <v>25</v>
@@ -1233,7 +1236,7 @@
         <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1491,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s">
         <v>26</v>
@@ -1506,7 +1509,7 @@
         <v>33</v>
       </c>
       <c r="M25" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1662,7 +1665,7 @@
         <v>33</v>
       </c>
       <c r="M29" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/TRANSACCION.xlsx
+++ b/Datos/TRANSACCION.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="32">
   <si>
     <t>ID_UNICO</t>
   </si>
@@ -127,15 +127,6 @@
   </si>
   <si>
     <t>ES32 6334 335 3339</t>
-  </si>
-  <si>
-    <t>1254 2689 5472 0214</t>
-  </si>
-  <si>
-    <t>6892 4513 7892 4568</t>
-  </si>
-  <si>
-    <t>6705 0002 0012 0068</t>
   </si>
   <si>
     <t>ES32 5829 354 1000</t>
@@ -517,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,8 +599,8 @@
       <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
-        <v>31</v>
+      <c r="L2">
+        <v>1254268954720210</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -647,8 +638,8 @@
       <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
-        <v>32</v>
+      <c r="L3">
+        <v>6892451378924560</v>
       </c>
       <c r="M3" t="s">
         <v>15</v>
@@ -686,8 +677,8 @@
       <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
-        <v>33</v>
+      <c r="L4">
+        <v>6705000200120060</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
@@ -725,8 +716,8 @@
       <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" t="s">
-        <v>31</v>
+      <c r="L5">
+        <v>1254268954720210</v>
       </c>
       <c r="M5" t="s">
         <v>16</v>
@@ -753,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
         <v>26</v>
@@ -764,11 +755,11 @@
       <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
-        <v>32</v>
+      <c r="L6">
+        <v>6892451378924560</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -803,8 +794,8 @@
       <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
-        <v>33</v>
+      <c r="L7">
+        <v>6705000200120060</v>
       </c>
       <c r="M7" t="s">
         <v>16</v>
@@ -831,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
         <v>28</v>
@@ -842,8 +833,8 @@
       <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
-        <v>31</v>
+      <c r="L8">
+        <v>1254268954720210</v>
       </c>
       <c r="M8" t="s">
         <v>17</v>
@@ -881,8 +872,8 @@
       <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
-        <v>32</v>
+      <c r="L9">
+        <v>6892451378924560</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -920,8 +911,8 @@
       <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>33</v>
+      <c r="L10" s="3">
+        <v>6705000200120060</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
@@ -959,8 +950,8 @@
       <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
-        <v>33</v>
+      <c r="L11">
+        <v>6705000200120060</v>
       </c>
       <c r="M11" t="s">
         <v>15</v>
@@ -998,8 +989,8 @@
       <c r="K12" t="s">
         <v>13</v>
       </c>
-      <c r="L12" t="s">
-        <v>31</v>
+      <c r="L12">
+        <v>1254268954720210</v>
       </c>
       <c r="M12" t="s">
         <v>16</v>
@@ -1026,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
         <v>23</v>
@@ -1037,11 +1028,11 @@
       <c r="K13" t="s">
         <v>13</v>
       </c>
-      <c r="L13" t="s">
-        <v>32</v>
+      <c r="L13">
+        <v>6892451378924560</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1076,8 +1067,8 @@
       <c r="K14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="s">
-        <v>33</v>
+      <c r="L14">
+        <v>6705000200120060</v>
       </c>
       <c r="M14" t="s">
         <v>18</v>
@@ -1115,8 +1106,8 @@
       <c r="K15" t="s">
         <v>13</v>
       </c>
-      <c r="L15" t="s">
-        <v>32</v>
+      <c r="L15">
+        <v>6892451378924560</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
@@ -1154,8 +1145,8 @@
       <c r="K16" t="s">
         <v>13</v>
       </c>
-      <c r="L16" t="s">
-        <v>33</v>
+      <c r="L16">
+        <v>6705000200120060</v>
       </c>
       <c r="M16" t="s">
         <v>15</v>
@@ -1193,8 +1184,8 @@
       <c r="K17" t="s">
         <v>13</v>
       </c>
-      <c r="L17" t="s">
-        <v>31</v>
+      <c r="L17">
+        <v>1254268954720210</v>
       </c>
       <c r="M17" t="s">
         <v>16</v>
@@ -1221,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I18" t="s">
         <v>25</v>
@@ -1232,11 +1223,11 @@
       <c r="K18" t="s">
         <v>13</v>
       </c>
-      <c r="L18" t="s">
-        <v>32</v>
+      <c r="L18">
+        <v>6892451378924560</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1271,8 +1262,8 @@
       <c r="K19" t="s">
         <v>13</v>
       </c>
-      <c r="L19" t="s">
-        <v>31</v>
+      <c r="L19">
+        <v>1254268954720210</v>
       </c>
       <c r="M19" t="s">
         <v>14</v>
@@ -1310,8 +1301,8 @@
       <c r="K20" t="s">
         <v>13</v>
       </c>
-      <c r="L20" t="s">
-        <v>32</v>
+      <c r="L20">
+        <v>6892451378924560</v>
       </c>
       <c r="M20" t="s">
         <v>15</v>
@@ -1349,8 +1340,8 @@
       <c r="K21" t="s">
         <v>13</v>
       </c>
-      <c r="L21" t="s">
-        <v>33</v>
+      <c r="L21">
+        <v>6705000200120060</v>
       </c>
       <c r="M21" t="s">
         <v>18</v>
@@ -1388,8 +1379,8 @@
       <c r="K22" t="s">
         <v>13</v>
       </c>
-      <c r="L22" t="s">
-        <v>32</v>
+      <c r="L22">
+        <v>6892451378924560</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -1427,8 +1418,8 @@
       <c r="K23" t="s">
         <v>13</v>
       </c>
-      <c r="L23" t="s">
-        <v>31</v>
+      <c r="L23">
+        <v>1254268954720210</v>
       </c>
       <c r="M23" t="s">
         <v>15</v>
@@ -1466,8 +1457,8 @@
       <c r="K24" t="s">
         <v>13</v>
       </c>
-      <c r="L24" t="s">
-        <v>32</v>
+      <c r="L24">
+        <v>6892451378924560</v>
       </c>
       <c r="M24" t="s">
         <v>16</v>
@@ -1494,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I25" t="s">
         <v>26</v>
@@ -1505,11 +1496,11 @@
       <c r="K25" t="s">
         <v>13</v>
       </c>
-      <c r="L25" t="s">
-        <v>33</v>
+      <c r="L25">
+        <v>6705000200120060</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1544,8 +1535,8 @@
       <c r="K26" t="s">
         <v>13</v>
       </c>
-      <c r="L26" t="s">
-        <v>31</v>
+      <c r="L26">
+        <v>1254268954720210</v>
       </c>
       <c r="M26" t="s">
         <v>15</v>
@@ -1583,8 +1574,8 @@
       <c r="K27" t="s">
         <v>13</v>
       </c>
-      <c r="L27" t="s">
-        <v>31</v>
+      <c r="L27">
+        <v>1254268954720210</v>
       </c>
       <c r="M27" t="s">
         <v>14</v>
@@ -1622,8 +1613,8 @@
       <c r="K28" t="s">
         <v>13</v>
       </c>
-      <c r="L28" t="s">
-        <v>32</v>
+      <c r="L28">
+        <v>6892451378924560</v>
       </c>
       <c r="M28" t="s">
         <v>15</v>
@@ -1661,11 +1652,11 @@
       <c r="K29" t="s">
         <v>13</v>
       </c>
-      <c r="L29" t="s">
-        <v>33</v>
+      <c r="L29">
+        <v>6705000200120060</v>
       </c>
       <c r="M29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
